--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3294.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3294.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.161891996748798</v>
+        <v>0.9179683923721313</v>
       </c>
       <c r="B1">
-        <v>2.593519537668087</v>
+        <v>0.778282105922699</v>
       </c>
       <c r="C1">
-        <v>3.363825890457693</v>
+        <v>3.667492866516113</v>
       </c>
       <c r="D1">
-        <v>2.905144635670469</v>
+        <v>2.85458779335022</v>
       </c>
       <c r="E1">
-        <v>1.081199362147356</v>
+        <v>1.303042769432068</v>
       </c>
     </row>
   </sheetData>
